--- a/Figure S4/Fig S4E - Spore volume to transmission/NEW VOLUMES DATABASE.xlsx
+++ b/Figure S4/Fig S4E - Spore volume to transmission/NEW VOLUMES DATABASE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Shared\Microsporidia database\Figure S2 (Jason)\Fig 4D2 - Spore volume to transmission\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Shared\Microsporidia database\Figure S4\Fig S4E - Spore volume to transmission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3193038-BA78-46E2-9603-40B6EC45A73B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E44DDB-18BA-44B8-B026-BEBCBDEED9AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10815" yWindow="945" windowWidth="17775" windowHeight="14670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3375" yWindow="1800" windowWidth="14775" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5567" uniqueCount="3922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5614" uniqueCount="3959">
   <si>
     <t>Species</t>
   </si>
@@ -11858,6 +11858,117 @@
   </si>
   <si>
     <t>germline</t>
+  </si>
+  <si>
+    <t>Cucumispora roeselii</t>
+  </si>
+  <si>
+    <t>Oogranate pervascens</t>
+  </si>
+  <si>
+    <t>Janacekia tainanus</t>
+  </si>
+  <si>
+    <t>Cambaraspora floridanus</t>
+  </si>
+  <si>
+    <t>Glugea eda</t>
+  </si>
+  <si>
+    <t>Fusasporis stethaprioni</t>
+  </si>
+  <si>
+    <t>Nucleospora sp.</t>
+  </si>
+  <si>
+    <t>Agglomerata daphnia</t>
+  </si>
+  <si>
+    <t>Jirovecia sinensis</t>
+  </si>
+  <si>
+    <t>Alternosema bostrichidis</t>
+  </si>
+  <si>
+    <t>Nosema alticae</t>
+  </si>
+  <si>
+    <t>Amblyospora sp. 40</t>
+  </si>
+  <si>
+    <t>2.2 ± 0.1</t>
+  </si>
+  <si>
+    <t>1.5 ± 0.1</t>
+  </si>
+  <si>
+    <t>6.14 ± 0.27</t>
+  </si>
+  <si>
+    <t>3.71 ± 0.12</t>
+  </si>
+  <si>
+    <t>6.136</t>
+  </si>
+  <si>
+    <t>2.12</t>
+  </si>
+  <si>
+    <t>3.9 ± 0.33 (fixed)</t>
+  </si>
+  <si>
+    <t>2.0 ± 0.2 (fixed)</t>
+  </si>
+  <si>
+    <t>4.48 ± 0.09 (fresh)</t>
+  </si>
+  <si>
+    <t>2.40 ± 0.08 (fresh)</t>
+  </si>
+  <si>
+    <t>17.0 ± 0.1 (fresh)</t>
+  </si>
+  <si>
+    <t>2.0 ± 0.2 (fresh)</t>
+  </si>
+  <si>
+    <t>3.95 (fresh)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.27 ± 0.38 (fresh)</t>
+  </si>
+  <si>
+    <t>2.61 ± 0.20 (fresh)</t>
+  </si>
+  <si>
+    <t>2.59181393921158</t>
+  </si>
+  <si>
+    <t>2.03522844075059</t>
+  </si>
+  <si>
+    <t>44.250156670285</t>
+  </si>
+  <si>
+    <t>14.4396177001326</t>
+  </si>
+  <si>
+    <t>12.6710903694788</t>
+  </si>
+  <si>
+    <t>8.16814089933346 (fixed)</t>
+  </si>
+  <si>
+    <t>13.511361684559 (fresh)</t>
+  </si>
+  <si>
+    <t>35.6047167406843 (fresh)</t>
+  </si>
+  <si>
+    <t>10.9408582155143 (fresh)</t>
+  </si>
+  <si>
+    <t>15.230266826211 (fresh)</t>
   </si>
 </sst>
 </file>
@@ -11928,12 +12039,18 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -11948,7 +12065,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -11992,6 +12109,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12333,8 +12466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1420" workbookViewId="0">
-      <selection activeCell="D1434" sqref="D1434"/>
+    <sheetView tabSelected="1" topLeftCell="D1427" workbookViewId="0">
+      <selection activeCell="E1430" sqref="E1430:E1441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31750,7 +31883,7 @@
         <v>3920</v>
       </c>
     </row>
-    <row r="1267" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="1267" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1267" s="6" t="s">
         <v>2282</v>
       </c>
@@ -34216,110 +34349,245 @@
       </c>
     </row>
     <row r="1430" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1430" s="15"/>
-      <c r="C1430" s="15"/>
+      <c r="A1430" s="19" t="s">
+        <v>3922</v>
+      </c>
+      <c r="B1430" s="22" t="s">
+        <v>3934</v>
+      </c>
+      <c r="C1430" s="22" t="s">
+        <v>3935</v>
+      </c>
+      <c r="D1430" t="s">
+        <v>3949</v>
+      </c>
+      <c r="E1430" t="s">
+        <v>3920</v>
+      </c>
     </row>
     <row r="1431" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1431" s="15"/>
-      <c r="C1431" s="15"/>
+      <c r="A1431" s="19" t="s">
+        <v>3923</v>
+      </c>
+      <c r="B1431" s="22">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C1431" s="22">
+        <v>1.3</v>
+      </c>
+      <c r="D1431" t="s">
+        <v>3950</v>
+      </c>
     </row>
     <row r="1432" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1432" s="15"/>
-      <c r="C1432" s="15"/>
+      <c r="A1432" s="19" t="s">
+        <v>3924</v>
+      </c>
+      <c r="B1432" s="22" t="s">
+        <v>3936</v>
+      </c>
+      <c r="C1432" s="22" t="s">
+        <v>3937</v>
+      </c>
+      <c r="D1432" t="s">
+        <v>3951</v>
+      </c>
+      <c r="E1432" t="s">
+        <v>3920</v>
+      </c>
     </row>
     <row r="1433" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1433" s="15"/>
-      <c r="C1433" s="15"/>
+      <c r="A1433" s="20" t="s">
+        <v>3925</v>
+      </c>
+      <c r="B1433" s="23" t="s">
+        <v>3938</v>
+      </c>
+      <c r="C1433" s="23" t="s">
+        <v>3939</v>
+      </c>
+      <c r="D1433" t="s">
+        <v>3952</v>
+      </c>
+      <c r="E1433" t="s">
+        <v>3920</v>
+      </c>
     </row>
     <row r="1434" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1434" s="15"/>
-      <c r="C1434" s="15"/>
+      <c r="A1434" s="20" t="s">
+        <v>3926</v>
+      </c>
+      <c r="B1434" s="24">
+        <v>5</v>
+      </c>
+      <c r="C1434" s="24">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D1434" t="s">
+        <v>3953</v>
+      </c>
+      <c r="E1434" t="s">
+        <v>3920</v>
+      </c>
     </row>
     <row r="1435" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1435" s="15"/>
-      <c r="C1435" s="15"/>
+      <c r="A1435" s="21" t="s">
+        <v>3927</v>
+      </c>
+      <c r="B1435" t="s">
+        <v>3940</v>
+      </c>
+      <c r="C1435" t="s">
+        <v>3941</v>
+      </c>
+      <c r="D1435" t="s">
+        <v>3954</v>
+      </c>
     </row>
     <row r="1436" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1436" s="15"/>
-      <c r="C1436" s="15"/>
+      <c r="A1436" s="21" t="s">
+        <v>3928</v>
+      </c>
+      <c r="B1436"/>
+      <c r="C1436"/>
+      <c r="D1436"/>
+      <c r="E1436" t="s">
+        <v>3920</v>
+      </c>
     </row>
     <row r="1437" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1437" s="15"/>
-      <c r="C1437" s="15"/>
+      <c r="A1437" s="21" t="s">
+        <v>3929</v>
+      </c>
+      <c r="B1437" t="s">
+        <v>3942</v>
+      </c>
+      <c r="C1437" t="s">
+        <v>3943</v>
+      </c>
+      <c r="D1437" t="s">
+        <v>3955</v>
+      </c>
+      <c r="E1437" t="s">
+        <v>3920</v>
+      </c>
     </row>
     <row r="1438" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1438" s="15"/>
-      <c r="C1438" s="15"/>
+      <c r="A1438" s="21" t="s">
+        <v>3930</v>
+      </c>
+      <c r="B1438" t="s">
+        <v>3944</v>
+      </c>
+      <c r="C1438" t="s">
+        <v>3945</v>
+      </c>
+      <c r="D1438" t="s">
+        <v>3956</v>
+      </c>
+      <c r="E1438" t="s">
+        <v>3920</v>
+      </c>
     </row>
     <row r="1439" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1439" s="15"/>
-      <c r="C1439" s="15"/>
+      <c r="A1439" s="21" t="s">
+        <v>3931</v>
+      </c>
+      <c r="B1439" t="s">
+        <v>3946</v>
+      </c>
+      <c r="C1439" t="s">
+        <v>749</v>
+      </c>
+      <c r="D1439" t="s">
+        <v>3957</v>
+      </c>
+      <c r="E1439" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1440" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1440" s="15"/>
-      <c r="C1440" s="15"/>
-    </row>
-    <row r="1441" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A1440" s="21" t="s">
+        <v>3932</v>
+      </c>
+      <c r="B1440" t="s">
+        <v>3947</v>
+      </c>
+      <c r="C1440" t="s">
+        <v>3948</v>
+      </c>
+      <c r="D1440" t="s">
+        <v>3958</v>
+      </c>
+      <c r="E1440" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1441" s="21" t="s">
+        <v>3933</v>
+      </c>
       <c r="B1441" s="15"/>
       <c r="C1441" s="15"/>
-    </row>
-    <row r="1442" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1441"/>
+    </row>
+    <row r="1442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1442" s="15"/>
       <c r="C1442" s="15"/>
     </row>
-    <row r="1443" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1443" s="15"/>
       <c r="C1443" s="15"/>
     </row>
-    <row r="1444" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1444" s="15"/>
       <c r="C1444" s="15"/>
     </row>
-    <row r="1445" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1445" s="15"/>
       <c r="C1445" s="15"/>
     </row>
-    <row r="1446" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1446" s="15"/>
       <c r="C1446" s="15"/>
     </row>
-    <row r="1447" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1447" s="15"/>
       <c r="C1447" s="15"/>
     </row>
-    <row r="1448" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1448" s="15"/>
       <c r="C1448" s="15"/>
     </row>
-    <row r="1449" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1449" s="15"/>
       <c r="C1449" s="15"/>
     </row>
-    <row r="1450" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1450" s="15"/>
       <c r="C1450" s="15"/>
     </row>
-    <row r="1451" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1451" s="15"/>
       <c r="C1451" s="15"/>
     </row>
-    <row r="1452" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1452" s="15"/>
       <c r="C1452" s="15"/>
     </row>
-    <row r="1453" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1453" s="15"/>
       <c r="C1453" s="15"/>
     </row>
-    <row r="1454" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1454" s="15"/>
       <c r="C1454" s="15"/>
     </row>
-    <row r="1455" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1455" s="15"/>
       <c r="C1455" s="15"/>
     </row>
-    <row r="1456" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1456" s="15"/>
       <c r="C1456" s="15"/>
     </row>
